--- a/biology/Botanique/Arroche_littorale/Arroche_littorale.xlsx
+++ b/biology/Botanique/Arroche_littorale/Arroche_littorale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arroche du littoral (Atriplex littoralis) est une espèce végétale de la famille des Amaranthaceae. Elle est courante sur les plages de nombreux endroits au monde. C'est une plante annuelle formant des tiges dressées de taille variant entre 30 cm et 1 m.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 juin 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 juin 2017) :
 variété Atriplex littoralis var. dilatata Franch. &amp; Sav.
-Selon Tropicos                                           (2 juin 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Atriplex littoralis subsp. stepposa Kitag.
 variété Atriplex littoralis var. dilatata Franch. &amp; Sav.
 variété Atriplex littoralis var. japonica Koidz.
